--- a/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
@@ -399,36 +399,36 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="F3" s="1" t="s"/>
+      <x:c r="F3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s"/>
-      <x:c r="D4" s="2" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
+      <x:c r="C4" s="2"/>
+      <x:c r="D4" s="2"/>
+      <x:c r="F4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
+      <x:c r="B5" s="2"/>
+      <x:c r="C5" s="2"/>
+      <x:c r="D5" s="2"/>
+      <x:c r="F5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+      <x:c r="B6" s="2"/>
+      <x:c r="C6" s="2"/>
+      <x:c r="D6" s="2"/>
+      <x:c r="F6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="F7" s="1" t="s"/>
+      <x:c r="F7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="B8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s"/>
+      <x:c r="F8" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Merged Row(1) of Range (B2:D3)</x:t>
   </x:si>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/MergeCells.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Merge Cells" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Merge Cells" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
